--- a/MySQLToExcel/bin/Debug/ExportExcel/hero_equipment.xlsx
+++ b/MySQLToExcel/bin/Debug/ExportExcel/hero_equipment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="37755" windowHeight="14805"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22635" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -28,7 +28,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>int(11)</t>
+    <t>id(int(11))</t>
   </si>
   <si>
     <t>英雄ID</t>
@@ -37,28 +37,43 @@
     <t>heroId</t>
   </si>
   <si>
+    <t>heroId(int(11))</t>
+  </si>
+  <si>
     <t>英雄品阶</t>
   </si>
   <si>
     <t>heroQuality</t>
   </si>
   <si>
+    <t>heroQuality(int(11))</t>
+  </si>
+  <si>
     <t>装备槽位序号</t>
   </si>
   <si>
     <t>seq</t>
   </si>
   <si>
+    <t>seq(int(11))</t>
+  </si>
+  <si>
     <t>装备ID</t>
   </si>
   <si>
     <t>propId</t>
   </si>
   <si>
+    <t>propId(int(11))</t>
+  </si>
+  <si>
     <t>穿戴等级限制</t>
   </si>
   <si>
     <t>equipRank</t>
+  </si>
+  <si>
+    <t>equipRank(int(11))</t>
   </si>
   <si>
     <t>exportDatabaseTableName</t>
@@ -640,16 +655,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G1" s="8"/>
     </row>
@@ -661,16 +676,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -704,24 +719,24 @@
       <c r="F4" s="14"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -1551,12 +1566,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/MySQLToExcel/bin/Debug/ExportExcel/hero_equipment.xlsx
+++ b/MySQLToExcel/bin/Debug/ExportExcel/hero_equipment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22635" windowHeight="11655"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="22635" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>

--- a/MySQLToExcel/bin/Debug/ExportExcel/hero_equipment.xlsx
+++ b/MySQLToExcel/bin/Debug/ExportExcel/hero_equipment.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具\MySQLToExcel\bin\Debug\ExportExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="32355" windowHeight="12105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9435" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -242,6 +250,9 @@
   </si>
   <si>
     <t>hero_equipment</t>
+  </si>
+  <si>
+    <t>exportDatabaseTableComment</t>
   </si>
 </sst>
 </file>
@@ -367,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,6 +428,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -497,12 +511,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,39 +529,39 @@
         <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,7 +596,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -623,166 +640,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1713,7 +1706,7 @@
   <sheetPr>
     <tabColor indexed="51"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1723,15 +1716,19 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="16384" width="9" style="15"/>
+    <col min="2" max="2" width="9" style="17"/>
+    <col min="3" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B1" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>74</v>
       </c>
@@ -1740,30 +1737,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>